--- a/biology/Biochimie/Flavonolignane/Flavonolignane.xlsx
+++ b/biology/Biochimie/Flavonolignane/Flavonolignane.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les flavonolignanes sont des composés de types polyphénols constitués d'un flavonoïde et d'une lignane.
 Les polyphénols est une famille de molécules organiques largement présente dans le règne végétal, caractérisés par la présence d'au moins deux groupes phénoliques.
